--- a/biology/Zoologie/Tim_Clutton-Brock/Tim_Clutton-Brock.xlsx
+++ b/biology/Zoologie/Tim_Clutton-Brock/Tim_Clutton-Brock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Timothy Hugh Clutton-Brock (né le 13 août 1946) est un zoologiste britannique connu pour ses études comparatives de l'écologie comportementale des mammifères[1] en particulier le cerf rouge et les suricates.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Timothy Hugh Clutton-Brock (né le 13 août 1946) est un zoologiste britannique connu pour ses études comparatives de l'écologie comportementale des mammifères en particulier le cerf rouge et les suricates.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clutton-Brock fait ses études à l'Université de Cambridge où il obtient un doctorat en 1972.
-Depuis 2008, il est professeur Prince Philip d'écologie et de biologie évolutive[2] et chef du groupe de recherche sur les grands animaux au département de zoologie de l'Université de Cambridge et membre du Magdalene College, Cambridge[3]. Il détient également des chaires extraordinaires au Département de zoologie et d'entomologie et à l'Institut de recherche sur les mammifères de l'Université de Pretoria, en Afrique du Sud[4].
-Les premiers travaux de Clutton-Brock portent sur le comportement social des primates[5]. Une grande partie de son travail récent se concentre sur trois études à long terme : du Cerf élaphe sur l'île écossaise de Rùm, des moutons Soay sur Saint-Kilda et des suricates dans le sud du Kalahari[2]. Il est l'un des fondateurs du Kalahari Meerkat Project, dont les sujets sont présentés dans l'émission télévisée Meerkat Manor [6],[7].
-Il est élu membre de la Royal Society en 1987[5]. Il est chercheur ISI très cité[8]. Il remporte en 1997 la médaille Frink de la Société zoologique de Londres.
-En 2012, il reçoit la médaille Darwin de la Royal Society pour ses travaux sur la diversité des sociétés animales et la démonstration de leurs effets sur l'évolution des stratégies de reproduction, le fonctionnement de la sélection et la dynamique des populations[9].
+Depuis 2008, il est professeur Prince Philip d'écologie et de biologie évolutive et chef du groupe de recherche sur les grands animaux au département de zoologie de l'Université de Cambridge et membre du Magdalene College, Cambridge. Il détient également des chaires extraordinaires au Département de zoologie et d'entomologie et à l'Institut de recherche sur les mammifères de l'Université de Pretoria, en Afrique du Sud.
+Les premiers travaux de Clutton-Brock portent sur le comportement social des primates. Une grande partie de son travail récent se concentre sur trois études à long terme : du Cerf élaphe sur l'île écossaise de Rùm, des moutons Soay sur Saint-Kilda et des suricates dans le sud du Kalahari. Il est l'un des fondateurs du Kalahari Meerkat Project, dont les sujets sont présentés dans l'émission télévisée Meerkat Manor ,.
+Il est élu membre de la Royal Society en 1987. Il est chercheur ISI très cité. Il remporte en 1997 la médaille Frink de la Société zoologique de Londres.
+En 2012, il reçoit la médaille Darwin de la Royal Society pour ses travaux sur la diversité des sociétés animales et la démonstration de leurs effets sur l'évolution des stratégies de reproduction, le fonctionnement de la sélection et la dynamique des populations.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Readings in Sociobiology. édité par Paul H. Harvey. (1978, W.H.Freeman &amp; Company;  (ISBN 0-7167-0190-1))
 Red Deer: Behavior and Ecology of Two Sexes. Avec F. E. Guinness and S. D. Albon. (1982, University Of Chicago Press;  (ISBN 0-226-11057-5))
